--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/56.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/56.xlsx
@@ -479,13 +479,13 @@
         <v>-9.083562478384193</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.69491958032148</v>
+        <v>-17.6185484040534</v>
       </c>
       <c r="F2" t="n">
-        <v>2.209053617049781</v>
+        <v>2.436025760846308</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.253178981370512</v>
+        <v>-8.869127935946874</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.785447203980237</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.22124561457921</v>
+        <v>-18.10517081354492</v>
       </c>
       <c r="F3" t="n">
-        <v>2.142836908044286</v>
+        <v>2.305611502671352</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.237881278883934</v>
+        <v>-8.810611412756771</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.40550596856226</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.7014878701094</v>
+        <v>-18.52853925219228</v>
       </c>
       <c r="F4" t="n">
-        <v>2.261894003267398</v>
+        <v>2.515789907880025</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.372920537554993</v>
+        <v>-8.807741565725891</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.966625487879194</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.17283702214867</v>
+        <v>-19.12628878776877</v>
       </c>
       <c r="F5" t="n">
-        <v>2.679943202443562</v>
+        <v>2.856695467703138</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.121830922883975</v>
+        <v>-8.658719747415457</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.480624367088231</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.69764746427765</v>
+        <v>-19.6184651090611</v>
       </c>
       <c r="F6" t="n">
-        <v>2.831487748297324</v>
+        <v>2.965598095663668</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.944306194539426</v>
+        <v>-8.316978167418101</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.965187975417743</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.3792923576904</v>
+        <v>-20.25776142499263</v>
       </c>
       <c r="F7" t="n">
-        <v>2.88331611009349</v>
+        <v>3.126123747131954</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.641080210639627</v>
+        <v>-8.103225898189713</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.431649297454271</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.9298580879943</v>
+        <v>-20.83759275040188</v>
       </c>
       <c r="F8" t="n">
-        <v>3.179066802493776</v>
+        <v>3.313182038866986</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.554183002587081</v>
+        <v>-7.911904392466731</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.892711250379476</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.33185667762638</v>
+        <v>-21.28734715910998</v>
       </c>
       <c r="F9" t="n">
-        <v>3.587753553519797</v>
+        <v>3.553579395520062</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.895303678712338</v>
+        <v>-8.209992030149403</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.357538292860058</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.00364533319543</v>
+        <v>-21.89785211360226</v>
       </c>
       <c r="F10" t="n">
-        <v>3.898982841660735</v>
+        <v>3.902366034412641</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.516361645464627</v>
+        <v>-7.906125586350037</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.833703166376666</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.98792464067708</v>
+        <v>-22.79270659648116</v>
       </c>
       <c r="F11" t="n">
-        <v>3.985415594060925</v>
+        <v>4.056677758153077</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.339404041916641</v>
+        <v>-7.558297192803373</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.32617035667778</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.87680964617149</v>
+        <v>-23.58912581510161</v>
       </c>
       <c r="F12" t="n">
-        <v>4.433458850365612</v>
+        <v>4.495803465932511</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.017946951410115</v>
+        <v>-7.100725262115069</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.836627995899597</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.50868933868591</v>
+        <v>-24.17510262214257</v>
       </c>
       <c r="F13" t="n">
-        <v>5.267005187133408</v>
+        <v>5.304098082232692</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.781265239975896</v>
+        <v>-6.850774786044043</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.373570741059683</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.68486216569397</v>
+        <v>-25.30832552382478</v>
       </c>
       <c r="F14" t="n">
-        <v>5.588247161337789</v>
+        <v>5.534746759193139</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.036381042739602</v>
+        <v>-6.258378712986826</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.942111942783543</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.14303055522004</v>
+        <v>-25.77371008748642</v>
       </c>
       <c r="F15" t="n">
-        <v>6.045046628941121</v>
+        <v>5.86893482358111</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.68091113145995</v>
+        <v>-5.827979882464835</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.547140921424939</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.13290777556431</v>
+        <v>-26.81970332864914</v>
       </c>
       <c r="F16" t="n">
-        <v>6.300497237737426</v>
+        <v>6.184764667183816</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.494155958150666</v>
+        <v>-5.529163782758993</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.193671298756941</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.21124179715167</v>
+        <v>-27.80597735093249</v>
       </c>
       <c r="F17" t="n">
-        <v>6.803150700745553</v>
+        <v>6.538748320375926</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.318293492140868</v>
+        <v>-5.162654493973847</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.885636790875451</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.73072566629915</v>
+        <v>-28.34987936487678</v>
       </c>
       <c r="F18" t="n">
-        <v>7.131765297305241</v>
+        <v>6.935520561667276</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.254922185131917</v>
+        <v>-5.00951613188147</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.625421621785103</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.82207177966281</v>
+        <v>-29.33038924806404</v>
       </c>
       <c r="F19" t="n">
-        <v>7.3311585533655</v>
+        <v>7.067416188922907</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.880429148133098</v>
+        <v>-4.745803101480078</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.41316091435318</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.49762008151252</v>
+        <v>-29.87779423542847</v>
       </c>
       <c r="F20" t="n">
-        <v>7.589219891828739</v>
+        <v>7.266887669093037</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.796167114781819</v>
+        <v>-4.656432055952872</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.247638654896228</v>
       </c>
       <c r="E21" t="n">
-        <v>-31.16980230213435</v>
+        <v>-30.67108693415753</v>
       </c>
       <c r="F21" t="n">
-        <v>7.913312157036531</v>
+        <v>7.58996302087251</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.721834654377244</v>
+        <v>-4.565633420420528</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.128998599830995</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.46717614481445</v>
+        <v>-30.89216782467942</v>
       </c>
       <c r="F22" t="n">
-        <v>7.85591521641895</v>
+        <v>7.5451308279029</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.742089809826873</v>
+        <v>-4.689496409393819</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.055010585650783</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.77754496774681</v>
+        <v>-31.37272786565596</v>
       </c>
       <c r="F23" t="n">
-        <v>7.996601278021294</v>
+        <v>7.626997247889391</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.385128751452812</v>
+        <v>-4.375416830249469</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.022364222717451</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.91805991410882</v>
+        <v>-31.45391715819138</v>
       </c>
       <c r="F24" t="n">
-        <v>8.350643599295807</v>
+        <v>7.935933591809746</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.51328917746212</v>
+        <v>-4.554735824114175</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.028616298341837</v>
       </c>
       <c r="E25" t="n">
-        <v>-32.02368935197195</v>
+        <v>-31.60500702640652</v>
       </c>
       <c r="F25" t="n">
-        <v>8.29393600864646</v>
+        <v>7.893174337751709</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.387211468378117</v>
+        <v>-4.421965064629365</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.070638132558406</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.83865755358325</v>
+        <v>-31.53165481187876</v>
       </c>
       <c r="F26" t="n">
-        <v>7.905347964850327</v>
+        <v>7.520905798877337</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.38383316463308</v>
+        <v>-4.437795668864436</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.145088268874858</v>
       </c>
       <c r="E27" t="n">
-        <v>-32.06042534956995</v>
+        <v>-31.67014326489443</v>
       </c>
       <c r="F27" t="n">
-        <v>7.94998459754526</v>
+        <v>7.597961436106783</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.947635971966927</v>
+        <v>-4.123960540063432</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.248319664648801</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.6650562532494</v>
+        <v>-31.33385292755368</v>
       </c>
       <c r="F28" t="n">
-        <v>7.86063799705239</v>
+        <v>7.567747373669249</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.116531603191372</v>
+        <v>-4.261806088676098</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.377363241484131</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.52407929573847</v>
+        <v>-31.13665972458353</v>
       </c>
       <c r="F29" t="n">
-        <v>7.44397727582643</v>
+        <v>7.252538433938641</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.772198849554552</v>
+        <v>-4.054326415257962</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.529206822371872</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.65453999947867</v>
+        <v>-31.33652476980645</v>
       </c>
       <c r="F30" t="n">
-        <v>7.299678238149435</v>
+        <v>6.950862265215655</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.84660464506213</v>
+        <v>-4.220190862224919</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.700140921267755</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.18051900518663</v>
+        <v>-30.96812343536381</v>
       </c>
       <c r="F31" t="n">
-        <v>7.182459409508282</v>
+        <v>6.940174896204578</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.800613757465062</v>
+        <v>-4.11302872070901</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.885411115677971</v>
       </c>
       <c r="E32" t="n">
-        <v>-31.19786764605388</v>
+        <v>-30.8746749581096</v>
       </c>
       <c r="F32" t="n">
-        <v>6.873694180828269</v>
+        <v>6.733399239775277</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.799239946535458</v>
+        <v>-4.210393292463621</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.082376370935568</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.68730376993508</v>
+        <v>-30.34291968172616</v>
       </c>
       <c r="F33" t="n">
-        <v>6.87765427639047</v>
+        <v>6.753468612963964</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.437448549376885</v>
+        <v>-3.949183433578089</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.287142123751161</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.32746308651641</v>
+        <v>-29.98468259255983</v>
       </c>
       <c r="F34" t="n">
-        <v>6.718888667394274</v>
+        <v>6.698897518315459</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.328985932034377</v>
+        <v>-3.971887981468042</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.495870942045607</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.78013876776528</v>
+        <v>-29.57414779693812</v>
       </c>
       <c r="F35" t="n">
-        <v>6.831238045195979</v>
+        <v>6.760474559804252</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.414294212855176</v>
+        <v>-3.979998843860254</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.704234778031733</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.50264851601292</v>
+        <v>-29.25507654178265</v>
       </c>
       <c r="F36" t="n">
-        <v>6.713095194256979</v>
+        <v>6.773533097145783</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.414577775253457</v>
+        <v>-4.131548278720884</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.908173487142985</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.19449441319127</v>
+        <v>-29.07098098820897</v>
       </c>
       <c r="F37" t="n">
-        <v>6.837843093473182</v>
+        <v>6.892546191307093</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.231401354970755</v>
+        <v>-4.07974925096592</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.103252452513556</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.49582110886105</v>
+        <v>-28.37607955267658</v>
       </c>
       <c r="F38" t="n">
-        <v>6.450506635434978</v>
+        <v>6.64734294090384</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.105968994793185</v>
+        <v>-4.055695337180699</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.284404596801787</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.93269307541263</v>
+        <v>-27.89294056057774</v>
       </c>
       <c r="F39" t="n">
-        <v>6.425382029145902</v>
+        <v>6.580744889362725</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.102297350636132</v>
+        <v>-4.113776738759648</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.447019785677344</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.57362485507893</v>
+        <v>-27.50198623745802</v>
       </c>
       <c r="F40" t="n">
-        <v>6.473020512057121</v>
+        <v>6.63972097919832</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.873266934948634</v>
+        <v>-3.976156084462859</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.588974274796571</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.35745008294798</v>
+        <v>-27.27479164384905</v>
       </c>
       <c r="F41" t="n">
-        <v>6.296385582962351</v>
+        <v>6.46110600232245</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.110452214090146</v>
+        <v>-4.375079488775651</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.70850521331529</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.76809252765855</v>
+        <v>-26.62862871777293</v>
       </c>
       <c r="F42" t="n">
-        <v>6.105068966246235</v>
+        <v>6.354002528888944</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.928082479940485</v>
+        <v>-4.151661652971372</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.804996700432811</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.30918834259901</v>
+        <v>-26.21311446865727</v>
       </c>
       <c r="F43" t="n">
-        <v>6.004448315918259</v>
+        <v>6.302731513875607</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.86615831896414</v>
+        <v>-4.168108272071674</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.878690941618078</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.59266527419769</v>
+        <v>-25.54283651621009</v>
       </c>
       <c r="F44" t="n">
-        <v>6.061155906567605</v>
+        <v>6.422468181053221</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.993487613806073</v>
+        <v>-4.284476413517983</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.932421613960156</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.16758079414004</v>
+        <v>-24.9759268359501</v>
       </c>
       <c r="F45" t="n">
-        <v>5.998586396684828</v>
+        <v>6.465383883331</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.026019065498525</v>
+        <v>-4.388240695261386</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.969460924133662</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.60529122536928</v>
+        <v>-24.53790115471573</v>
       </c>
       <c r="F46" t="n">
-        <v>5.950806132574468</v>
+        <v>6.318131885506388</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.044665737688939</v>
+        <v>-4.386353538610757</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.992573919770274</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.61665327732799</v>
+        <v>-24.44360687927354</v>
       </c>
       <c r="F47" t="n">
-        <v>6.119696874792045</v>
+        <v>6.507194670056856</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.154619502125856</v>
+        <v>-4.431655076239591</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.006371231250934</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.10770766248215</v>
+        <v>-23.98058370592862</v>
       </c>
       <c r="F48" t="n">
-        <v>6.07948479331167</v>
+        <v>6.460636657663225</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.297373613632905</v>
+        <v>-4.459180184900323</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.016581409352999</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.36492084919176</v>
+        <v>-23.19743814095185</v>
       </c>
       <c r="F49" t="n">
-        <v>6.224610073149173</v>
+        <v>6.672183984794636</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.436661419271312</v>
+        <v>-4.647587842530624</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.028720833121465</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.24840603753944</v>
+        <v>-23.06795279408161</v>
       </c>
       <c r="F50" t="n">
-        <v>6.101822665686604</v>
+        <v>6.467779496695789</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.668889245449772</v>
+        <v>-4.723690123421021</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.048085819697097</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.85665969530728</v>
+        <v>-22.49823193487314</v>
       </c>
       <c r="F51" t="n">
-        <v>6.174047964131538</v>
+        <v>6.593006518584948</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.40964476732474</v>
+        <v>-4.540513703138319</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.078831539338405</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.1863377417983</v>
+        <v>-21.96294435102836</v>
       </c>
       <c r="F52" t="n">
-        <v>6.110969997534601</v>
+        <v>6.473514301750679</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.573089155892574</v>
+        <v>-4.69681525267359</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.126194173874286</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.77926925204523</v>
+        <v>-21.54543294260756</v>
       </c>
       <c r="F53" t="n">
-        <v>6.469867102627961</v>
+        <v>6.860552530370001</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.656021379376051</v>
+        <v>-4.723220778761798</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.192490833855604</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.1971156483742</v>
+        <v>-20.8545087141614</v>
       </c>
       <c r="F54" t="n">
-        <v>6.621304090330652</v>
+        <v>6.861359216503042</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.595886594912998</v>
+        <v>-4.752100142324664</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.276236906211918</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.91317679656438</v>
+        <v>-20.57875894885366</v>
       </c>
       <c r="F55" t="n">
-        <v>6.504852835767604</v>
+        <v>6.782264863410092</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.098031601206966</v>
+        <v>-5.049835771512917</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.37710608724959</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.36773474545702</v>
+        <v>-20.03303333534802</v>
       </c>
       <c r="F56" t="n">
-        <v>6.388866036856914</v>
+        <v>6.630343864027577</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.173454310142862</v>
+        <v>-5.112654620745908</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.492590869697755</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.08477858402745</v>
+        <v>-19.79224485814559</v>
       </c>
       <c r="F57" t="n">
-        <v>6.43814233706855</v>
+        <v>6.662083296607589</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.411250715142739</v>
+        <v>-5.348368308820478</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.618504809206514</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.71251004515307</v>
+        <v>-19.37250895160034</v>
       </c>
       <c r="F58" t="n">
-        <v>6.163018364639778</v>
+        <v>6.305972925428371</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.839425047540282</v>
+        <v>-5.663968369100439</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.749173587013177</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.25079223664163</v>
+        <v>-18.78436631451734</v>
       </c>
       <c r="F59" t="n">
-        <v>6.297788727933155</v>
+        <v>6.527122262046402</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.66990851244374</v>
+        <v>-5.526108153467171</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.878664456683378</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.62394822120013</v>
+        <v>-18.2401758491679</v>
       </c>
       <c r="F60" t="n">
-        <v>6.083801786375155</v>
+        <v>6.353039394536162</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.071628428684408</v>
+        <v>-5.833719576526593</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.002035469526477</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.36696735325448</v>
+        <v>-17.975636576606</v>
       </c>
       <c r="F61" t="n">
-        <v>5.889331760229879</v>
+        <v>6.059043855601098</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.057939209457047</v>
+        <v>-5.859279304426824</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.113427482301638</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.12076674545037</v>
+        <v>-17.67344217315512</v>
       </c>
       <c r="F62" t="n">
-        <v>5.866255647818041</v>
+        <v>6.137067516190194</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.161913718495726</v>
+        <v>-5.933865993188479</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.205980659645453</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.54917339661188</v>
+        <v>-17.12433336689757</v>
       </c>
       <c r="F63" t="n">
-        <v>5.810672528748085</v>
+        <v>5.975759623623202</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.129856500469365</v>
+        <v>-5.796626681427309</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.277379753291783</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.64531571664976</v>
+        <v>-17.16710239896934</v>
       </c>
       <c r="F64" t="n">
-        <v>5.632306891222426</v>
+        <v>5.813957941362652</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.38297994199702</v>
+        <v>-6.005133046287498</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.325143409586448</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.253554707397</v>
+        <v>-16.80962310586739</v>
       </c>
       <c r="F65" t="n">
-        <v>5.722513956923875</v>
+        <v>5.893526528121693</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.244577046601524</v>
+        <v>-5.916969585456421</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.348392259957437</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.18567084704988</v>
+        <v>-16.75026567349617</v>
       </c>
       <c r="F66" t="n">
-        <v>5.753221809054967</v>
+        <v>5.891341142052181</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.39803319414025</v>
+        <v>-6.022533021726848</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.346877360991276</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.99471112783505</v>
+        <v>-16.5808420295301</v>
       </c>
       <c r="F67" t="n">
-        <v>5.390877954120433</v>
+        <v>5.670851821361184</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.407840541915282</v>
+        <v>-5.956956772620918</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.323835668960664</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.83501660753415</v>
+        <v>-16.32808526351747</v>
       </c>
       <c r="F68" t="n">
-        <v>5.298030824710851</v>
+        <v>5.55176539209687</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.506710927784903</v>
+        <v>-6.084217621366714</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.283650010109059</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.88692808244705</v>
+        <v>-16.24353477876104</v>
       </c>
       <c r="F69" t="n">
-        <v>5.450127828340575</v>
+        <v>5.699208061189291</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.170601483698234</v>
+        <v>-5.721917767493982</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.230358210476894</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.62290704461304</v>
+        <v>-16.04566200383639</v>
       </c>
       <c r="F70" t="n">
-        <v>5.390203271172799</v>
+        <v>5.637332790281615</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.062520208891345</v>
+        <v>-5.61352359624761</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.167967259813159</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.72911094078303</v>
+        <v>-16.10865196830973</v>
       </c>
       <c r="F71" t="n">
-        <v>5.181247117680853</v>
+        <v>5.457627564874422</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.804869547004928</v>
+        <v>-5.340438339682342</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.10256670261266</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.7067144003257</v>
+        <v>-16.04960743237799</v>
       </c>
       <c r="F72" t="n">
-        <v>5.141572826955839</v>
+        <v>5.427076160963071</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.814901789095837</v>
+        <v>-5.306357072813078</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.038620927940351</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.64328442523434</v>
+        <v>-16.01983826956535</v>
       </c>
       <c r="F73" t="n">
-        <v>5.168565033868076</v>
+        <v>5.482390384655347</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.839043705004663</v>
+        <v>-5.361612628422951</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.979408091421583</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.84945873381901</v>
+        <v>-16.18524803889368</v>
       </c>
       <c r="F74" t="n">
-        <v>5.116673114982641</v>
+        <v>5.440144476318335</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.409304890409707</v>
+        <v>-4.991695701851565</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.925152025379807</v>
       </c>
       <c r="E75" t="n">
-        <v>-17.07126319735721</v>
+        <v>-16.45464209527443</v>
       </c>
       <c r="F75" t="n">
-        <v>5.094701918122725</v>
+        <v>5.270530161084454</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.422241202579563</v>
+        <v>-5.007775645436848</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.877493316995712</v>
       </c>
       <c r="E76" t="n">
-        <v>-17.17841556085938</v>
+        <v>-16.51743161046622</v>
       </c>
       <c r="F76" t="n">
-        <v>4.942106235792576</v>
+        <v>5.176006102319521</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.200162954656818</v>
+        <v>-4.778378554234332</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.835076637229188</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.3946612235899</v>
+        <v>-16.6812377855422</v>
       </c>
       <c r="F77" t="n">
-        <v>4.964752115600126</v>
+        <v>5.164032924502446</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.899019687682325</v>
+        <v>-4.512079239200342</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.79395267570832</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.79525177924431</v>
+        <v>-17.10690405741702</v>
       </c>
       <c r="F78" t="n">
-        <v>4.737814194851667</v>
+        <v>5.005057088210973</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.322938230540004</v>
+        <v>-4.004346098057491</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.750328129363998</v>
       </c>
       <c r="E79" t="n">
-        <v>-18.06899705173661</v>
+        <v>-17.27461654897967</v>
       </c>
       <c r="F79" t="n">
-        <v>4.885677318534643</v>
+        <v>5.130724120718154</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.993375166648133</v>
+        <v>-3.808375146804072</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.701425355671734</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.41550541342921</v>
+        <v>-17.65204299009864</v>
       </c>
       <c r="F80" t="n">
-        <v>4.692625104380773</v>
+        <v>4.886161330214468</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.63019040253249</v>
+        <v>-3.414057186959913</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.64433057539194</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.29147366278123</v>
+        <v>-18.49868208725603</v>
       </c>
       <c r="F81" t="n">
-        <v>4.640224728781178</v>
+        <v>4.877111778503808</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.292174245767724</v>
+        <v>-3.182367151536814</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.576874902354976</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.98796158104193</v>
+        <v>-19.28158809089632</v>
       </c>
       <c r="F82" t="n">
-        <v>4.557918298176665</v>
+        <v>4.717739932656115</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.039666819105301</v>
+        <v>-3.041656644900135</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.497063923071506</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.59529357007757</v>
+        <v>-19.92755301219433</v>
       </c>
       <c r="F83" t="n">
-        <v>4.320205006293527</v>
+        <v>4.43959455398359</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.824467403844305</v>
+        <v>-2.882143017853301</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.40754765377586</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.84131074918638</v>
+        <v>-21.12632282894127</v>
       </c>
       <c r="F84" t="n">
-        <v>4.041028047172083</v>
+        <v>4.260964910087118</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.321725938712575</v>
+        <v>-2.456022068339861</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.310399297726615</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.62369851809878</v>
+        <v>-22.03504253529475</v>
       </c>
       <c r="F85" t="n">
-        <v>4.171828536889525</v>
+        <v>4.348013677352539</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.325382915849027</v>
+        <v>-2.495877252318952</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.207880817570059</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.52133484588497</v>
+        <v>-22.88781244706326</v>
       </c>
       <c r="F86" t="n">
-        <v>3.836242216537616</v>
+        <v>4.018191496096723</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.933211230019444</v>
+        <v>-2.322840632278231</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.10538454104212</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.28161452574518</v>
+        <v>-23.65555275140238</v>
       </c>
       <c r="F87" t="n">
-        <v>3.722880814314459</v>
+        <v>3.835127522971959</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.89775126321371</v>
+        <v>-2.253837189358594</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.009216201204807</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.50221864715976</v>
+        <v>-24.92580962655736</v>
       </c>
       <c r="F88" t="n">
-        <v>3.788848183969743</v>
+        <v>3.966167574025881</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.65626854703618</v>
+        <v>-2.167052428463986</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.925897421200032</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.8262545978508</v>
+        <v>-26.28688469327215</v>
       </c>
       <c r="F89" t="n">
-        <v>3.261539459331764</v>
+        <v>3.47340946091639</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.487651589203151</v>
+        <v>-2.159357131655462</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.861375366174676</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.13238944989863</v>
+        <v>-27.62736726306349</v>
       </c>
       <c r="F90" t="n">
-        <v>3.333979874078843</v>
+        <v>3.564569882956886</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.504890227415893</v>
+        <v>-2.197672278471475</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.82132824060461</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.83708836425454</v>
+        <v>-29.37321939272165</v>
       </c>
       <c r="F91" t="n">
-        <v>2.949439927968514</v>
+        <v>3.152231043801279</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.662091354214676</v>
+        <v>-2.495178124336983</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.812187786864387</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.46018486499477</v>
+        <v>-31.02418323260329</v>
       </c>
       <c r="F92" t="n">
-        <v>2.668419813258243</v>
+        <v>2.865657017290193</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.87024082157358</v>
+        <v>-2.65297570997353</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.837868873124477</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.03402706605426</v>
+        <v>-32.63984355389893</v>
       </c>
       <c r="F93" t="n">
-        <v>2.395686565187393</v>
+        <v>2.572301938254695</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.185439983290453</v>
+        <v>-3.051478659695767</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.89864803074903</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.97423677469975</v>
+        <v>-34.59070640850744</v>
       </c>
       <c r="F94" t="n">
-        <v>1.849305824761579</v>
+        <v>2.068895568189064</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.998601696864432</v>
+        <v>-2.990586079168342</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.997133783033164</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.26058083601253</v>
+        <v>-36.82040888076357</v>
       </c>
       <c r="F95" t="n">
-        <v>1.451580227131181</v>
+        <v>1.613010344869846</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.037479079470139</v>
+        <v>-3.174109618938595</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.135178065202243</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.99231595834247</v>
+        <v>-38.66889104257201</v>
       </c>
       <c r="F96" t="n">
-        <v>1.189539237078274</v>
+        <v>1.420495921471336</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.284359259228744</v>
+        <v>-3.465367314028186</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.309421483506733</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.0690389612294</v>
+        <v>-40.72152835312909</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6898729572658321</v>
+        <v>0.9734646895881006</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.511693189533422</v>
+        <v>-3.884003194028379</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.522272097982994</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.66758531398742</v>
+        <v>-42.52564522212371</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2951638768723207</v>
+        <v>0.5724927913980711</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.798668114607595</v>
+        <v>-4.141556075777459</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.764553642641522</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.15549823941623</v>
+        <v>-45.01749624258382</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02598493679371746</v>
+        <v>0.4109062254396652</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.929791278778254</v>
+        <v>-4.373847459045189</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.045561226724639</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.66182927596443</v>
+        <v>-47.62674820719088</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.737242814207242</v>
+        <v>-0.4434477245537221</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.388854356560967</v>
+        <v>-4.737369564634649</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.342320238213233</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.44578632514332</v>
+        <v>-49.45354884579626</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.7360254514973802</v>
+        <v>-0.5000673130794641</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.765576780691098</v>
+        <v>-5.128079437411024</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.679645894059703</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.49036899688716</v>
+        <v>-51.71393228064572</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.107717087561456</v>
+        <v>-0.8820551976052627</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.06748273273683</v>
+        <v>-5.429193370344316</v>
       </c>
     </row>
   </sheetData>
